--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841810_log.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841810_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15192" windowHeight="6204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,400 +101,400 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 0  2 24  1 27 16 23  9 20  8  6 15 19 18  7  3 17 10  5 26 11 22 13 14
-  4 21 12 25]</t>
-  </si>
-  <si>
-    <t>[ 0  2 30 24 52  1 28 51 29  9 45  6 27 16 55 23 43  8 47  3 46 37  5 33
- 18 34 26 11  7 40 48 20 44 50 10 15 31 41 22 19 12 54  4 17 36 21 32 38
- 42 39 35 49 13 14 25 53]</t>
-  </si>
-  <si>
-    <t>[ 0  2 30  1 79 24 52 28 73 51 63 16 29 27 58 55  9 69 80  6 43  5  3 37
- 67 45 65 61 20  8 33 59 64 23  7 26 62 10 56 71 15 78 18 34 40 74 82 75
- 11 47 31 46 83 48 19 12 60 72 66 21 17 32 36 76 57 54 44 22  4 70 50 41
- 13 38 35 49 68 14 39 42 77 53 81 25]</t>
-  </si>
-  <si>
-    <t>[24  2 23  0 27 15  1 17 16 18 20 19  5 22 21  6  9 12  7 13 14 26  4 11
-  8  3 10 25]</t>
-  </si>
-  <si>
-    <t>[ 2 51 24  0 52  1 45 23 15 35 27 30 55 41 16 33 43 37  5 36 29 22  9 18
- 50 39 47  7 17 13 20 46 19 12 21 44 42 26 31  6 34 54  8 28  3  4 32 11
- 49 48 38 14 40 10 25 53]</t>
-  </si>
-  <si>
-    <t>[ 2 79 51  0 24 58  1 23 80 45 52 64 35 15 30 67 27 55 29 83 33 41 16 66
- 36 43 17 65 62 73 60 13 69 63 77  5 12 37 18 19 22 70 56 61  9 46 39 72
- 34  6 31  4 20 78 28 48 47 38 50 26  8 82  7  3 59 68 32 40 21 74 44 10
- 57 14 11 54 75 42 71 76 25 49 81 53]</t>
-  </si>
-  <si>
-    <t>[23 24 17  2  7 15 27 13 16 19  1  5  9 26 18 22  8 20  0 11 10  4  3 14
-  6 12 21 25]</t>
-  </si>
-  <si>
-    <t>[51 23 52 30 24 17  2  7 36 15  1 55 39 27 13 35 34 45 32  9 41  5 38 16
- 19 54 49  8 22 18 33 28  0 37 26 44  3 10 11 40 42 43 31  4 20  6 14 50
- 46 12 29 48 47 25 53 21]</t>
-  </si>
-  <si>
-    <t>[23 51 30 80 79 17  2 52 83 24  7 36 61 15  1 27 39 45 13 77 67 58 38 32
-  5 62 55 41 56 63 35 16 19 34 70  8 22 18 65  9  0 54 37 28 64 57 66 43
- 26 33 59 60 49 69  4 82  6 10  3 44 72 78 20 42 76 14 31 75 74 68 11 81
- 12 71 29 40 46 48 73 47 50 21 53 25]</t>
-  </si>
-  <si>
-    <t>[23 24  2 17  8 13 27  7 11 15 26  4 16 21  6 10 14 19  5 12 25  9  0 22
- 18 20  3  1]</t>
-  </si>
-  <si>
-    <t>[23 52  2 51 17 24  8 55 33 39 27 49  4 13 28  7 30 15 11 10 38 35 26 42
-  6 16 34 50 21 37  9 14 41 36 44 54 29  0 47 31 48 32 19 18 22 12  5 46
- 40  3  1 43 20 45 53 25]</t>
-  </si>
-  <si>
-    <t>[23 52  2 79 51 17 80 24 33 70 55 83 61  8 13 27 74 39 11 10 57  4 30 49
- 77 56  6 68 82 28 78 67 75 65  7 71 15 66 69 26  9  5 58 35 62 34 38 37
- 21 72 63 42 16 41 32 54 18  0 14 50 48 36 31 81 64 22 59  3 29 20 76 47
- 19 73  1 60 46 44 45 12 53 40 43 25]</t>
-  </si>
-  <si>
-    <t>[24 23 27  5 21 17 14 11  7 10  0  6  2 16 18 22 15 13 26  9  4 19 25  8
- 20  1  3 12]</t>
-  </si>
-  <si>
-    <t>[24 23 51 52 42 55  5 27 33 17 46  2 11 28 21 43 47 37 49 50 29 40 39  0
- 34 10  7 41 14 13 38 54  6  9  8 30  4 22 35 53 15 19 20 26  1 18 31 45
- 44 48  3 36 16 12 25 32]</t>
-  </si>
-  <si>
-    <t>[79 61 80 24 23 51 74 52 78 33 27 55 70  5 77 75 17 11 82 42 56 37 28 40
-  2 49 67 50 34 69 57 63 71 66 39 21  6 29 65  8 62 14  7 43 83  9  0 35
- 38 46 41 22 54 13 30 10  4 20 58 59 68 15 73  1 64 72 76 26 19 47  3 16
- 45 36 12 81 31 18 32 53 48 44 60 25]</t>
-  </si>
-  <si>
-    <t>[23 24 14 27 22  5 21 18 15 19  0 12  9 11  1 25 26  6  2 13 10 20 16  7
- 17  3  8  4]</t>
-  </si>
-  <si>
-    <t>[51 33 52 23 24 27 46 50  5 14 42 49 47 21 22 38 35 28 54  0 12  9 29 11
- 39  1 43 15 41  6 18 34  2 26 10 55 37 30 17  7 13 40 20 19 48 45 53 25
- 36  8 44 32 16  3 31  4]</t>
-  </si>
-  <si>
-    <t>[33 61 51 79 52 80 24 23 46 62 27 63  5 74 75 78 77 50 82 83 12 14 71 49
- 22 28 29 42 68  0 21 38 54  9  1 11 67  6 65 15  2 47 58 69 13 70 34 35
- 41 18 37 10 66 39 76 17 73 26 30 43 31 40  7 19 60 56 20  8  3 16 36 44
- 81 59 45 55 48 25  4 57 53 32 72 64]</t>
-  </si>
-  <si>
-    <t>[24  1 23  2 20  7  4 13 26  6 16  0 10 18 25 22 21 14 12 27  5 17 11  9
- 15 19  8  3]</t>
-  </si>
-  <si>
-    <t>[  0   2  30   1  79  52  24  28  89  73 107  80  63  29  95  55 108  96
- 102   6   9  16  69  97 111  58  98  84   8  27  61   3 105  93  51  43
-  90  33  78   5  65  64  37  45  94  10 104   7  34  83  92  15 103  59
-  62  67 100  57  26  85  71  18 106  23  48  86  46  47  76 101  91  44
-  19  99  74   4  20  40  11  66  31  75  17  60 110  56  32  82  21  41
-  36  12  87  42  72  70  22  35  54  13  38  50  14  77  68  88 109  39
-  53  49  25  81]</t>
-  </si>
-  <si>
-    <t>[  0   2  30  86  28   1  79 107 136 145 139 135  92  73  16 108  24  63
-  51  58 117 167 163  29  95 152   6 158 123  52 151  69 153   3 164  88
-  90  43   7   5   9  61 140  27   8  93  80  55  94 154 111 149  33 156
- 122 121  26  59  74 146 162 114  64  97 115 161 150  37  11  84 132  89
- 125 133 112  31  65 148 147  48  34 119  46  78  23  83  41  45  20  18
-  40 105 141  10 101 120  32  85 159 160 116 155  57  67 118  12  47 142
-  62  91  19 143  66  82  76  36 102 166  15 130  56 103  60  75  44 124
- 138  35  21  71  17  87 129 131  22   4 113  39  50 134  38  54  70 157
-  42  14 110 165  72 104 106 100  13 144  96  98 128  25  68  77 126 127
-  49  53  99 137  81 109]</t>
-  </si>
-  <si>
-    <t>[112   0 114   2  30 142  79  52 107   1 140  24  89 164  73 113 136 111
-  96 108  63  58  28  95  97 102 139  93  84  69 141  98  51 121  90  86
- 163  55 128 118  27  92  16  29  94 103  80  64  61   9 167  67  85   6
- 100 105  57  65  83  62   8 145  76  74 135   7  78 146  59  91   3 104
- 155  87  43  37  75 106 110  60 120 132  34 115  56 160  72 158  26 101
- 149  71  46  47  66 152  33  23  82 119 162  10 117  48  70  12   4 123
- 143  99 122 138  40  31 116  45  68 130  88 127   5 156  54 124 159 157
- 109  18 147  32 133  22  21  11 144  36 148  42  77  13  17  15 131  50
- 166 126 129  20  14 134 153  39 154  35  49  41  38 125 151  19 150  44
- 161  53  25  81 137 165]</t>
-  </si>
-  <si>
-    <t>[5.1261125 0.654067  2.0214477 0.2258015 0.1407751 0.2015959 0.2521445
- 0.2285039 0.2698649 0.3105454 0.2023467 0.1925956 0.1170786 0.1535511
- 0.1425193 0.2381244 0.4018232 0.2029343 0.2327376 0.2349634 0.2909125
- 0.1259575 0.1760795 0.3180778 1.5926169 0.1034886 0.1963739 0.4490884]</t>
-  </si>
-  <si>
-    <t>[8.2875433 1.0734177 2.5004538 0.2638306 0.1349954 0.2511423 0.3966024
- 0.2040534 0.3161364 0.4042261 0.1795283 0.2049406 0.1418522 0.1099775
- 0.109395  0.1757086 0.3796807 0.1340999 0.2401323 0.1438572 0.1881768
- 0.1324318 0.145519  0.3446615 1.3385111 0.0781402 0.2221234 0.3818028
- 0.7440096 0.5226412 2.3167051 0.1574243 0.1321153 0.2481049 0.2236181
- 0.1179359 0.1338294 0.2525452 0.1291341 0.1234304 0.1939476 0.1535001
- 0.1267108 0.3336733 0.1857406 0.3977042 0.2615921 0.2830249 0.1907789
- 0.1166481 0.1848399 0.6217939 1.27136   0.0777282 0.141397  0.3674708]</t>
-  </si>
-  <si>
-    <t>[11.1202672  1.2979514  3.406083   0.2781021  0.1257005  0.2837731
-  0.3117689  0.2174027  0.2441546  0.3508675  0.2009832  0.1652505
-  0.1505968  0.1156495  0.0891557  0.1879431  0.4811941  0.1446112
-  0.1828482  0.1531622  0.2467257  0.1447871  0.129564   0.225579
-  1.2306572  0.0558375  0.2085353  0.4679123  0.8952782  0.4715194
-  2.8890545  0.1636025  0.1433472  0.2437042  0.1797327  0.0976789
-  0.1408648  0.2774314  0.1021938  0.0853184  0.1748927  0.1184152
-  0.0848366  0.3041648  0.1301442  0.2606042  0.161628   0.1648929
-  0.1554884  0.0955156  0.1206355  0.6211084  1.1574351  0.0663638
-  0.1308637  0.3584008  0.19654    0.1330376  0.4081416  0.234018
-  0.1476312  0.2523206  0.2052878  0.4958315  0.2316262  0.2524324
-  0.1471855  0.2608473  0.0941628  0.342202   0.1242173  0.1948059
-  0.1473815  0.6497154  0.1719517  0.1657149  0.1356509  0.0827482
-  0.1833793  1.2413256  0.3234039  0.0573821  0.1713984  0.1597625]</t>
-  </si>
-  <si>
-    <t>[1.2658452 0.6949471 3.3510534 0.1598443 0.1905268 0.3073933 0.2629902
- 0.2437742 0.182037  0.2521392 0.1594117 0.182049  0.2453142 0.2325962
- 0.2239314 0.7804607 0.3983663 0.6789725 0.377383  0.3396915 0.3758868
- 0.2633902 0.2945596 1.4339423 3.7237044 0.1493651 0.202762  0.89691  ]</t>
-  </si>
-  <si>
-    <t>[1.7278243 1.0508293 4.631622  0.1613453 0.1570256 0.2924756 0.1862097
- 0.2286301 0.1727326 0.2560413 0.1138216 0.1531909 0.1929368 0.2155477
- 0.1311375 0.7594601 0.3544601 0.2212702 0.251449  0.2062828 0.2146166
- 0.1909082 0.2591615 0.9220826 2.6605054 0.0874054 0.1881924 0.6609059
- 0.1721858 0.2733789 0.5793264 0.1864176 0.1549858 0.3501402 0.1844478
- 0.6916931 0.2765461 0.2936564 0.1421203 0.2338439 0.1252525 0.3843243
- 0.1882935 0.308963  0.1895848 0.9963246 0.2142479 0.2337629 0.146315
- 0.1502051 0.2506894 2.7598149 1.1465431 0.0739586 0.1788109 0.4359783]</t>
-  </si>
-  <si>
-    <t>[2.3574889 1.4211806 8.3051622 0.201637  0.2200821 0.298404  0.2287734
- 0.2017895 0.2048495 0.2564777 0.1724173 0.1611282 0.2975904 0.3363055
- 0.1666627 0.8619751 0.4455231 0.3901893 0.2898186 0.2893075 0.2170282
- 0.181359  0.2771322 1.3675923 2.2900039 0.1203961 0.2061319 0.7935698
- 0.2117657 0.5840094 0.8198495 0.2218438 0.1885871 0.5171086 0.2340483
- 0.912331  0.4294873 0.2928098 0.2086063 0.2426884 0.1858167 0.4817047
- 0.1472377 0.4011935 0.1762864 1.1653921 0.256377  0.2107432 0.2110839
- 0.1170228 0.2064607 2.70074   1.0245447 0.0574857 0.150494  0.6271546
- 0.2656976 0.1685263 2.1944756 0.196583  0.3557939 0.2565263 0.3594744
- 0.3281024 0.9746432 0.3619873 0.4402    0.8188523 0.1963739 0.3334345
- 0.2685503 0.1392145 0.2387188 0.357641  0.1792881 0.1502205 0.1335332
- 0.3128609 0.2144685 3.007466  1.1847283 0.0724503 0.2043232 0.5206406]</t>
-  </si>
-  <si>
-    <t>[0.2470249 0.4309369 1.1082391 0.2187516 0.2361093 0.407409  0.2113387
- 0.9440193 0.2947051 0.3800752 0.2392978 0.2433972 0.1676713 0.6598629
- 0.2139767 0.8912053 0.4976981 1.1341773 0.3151134 0.4917975 0.262612
- 0.1669147 0.2951729 4.7878511 1.9976954 0.1581107 0.345749  0.6618901]</t>
-  </si>
-  <si>
-    <t>[0.3059633 0.7867686 1.2273509 0.2616737 0.2043236 0.4499098 0.1911301
- 1.0402674 0.3360803 0.4594264 0.2584097 0.2359069 0.1694284 0.6844958
- 0.1868074 0.9383781 0.3593817 1.2824416 0.3290567 0.358621  0.1956949
- 0.1071588 0.3344136 3.944605  1.601358  0.1470621 0.2857295 0.6985206
- 0.3198374 0.1506056 1.9700866 0.214329  0.4737185 0.3237309 0.5232776
- 0.5233508 0.9883231 0.2898808 0.4266085 0.759032  0.233232  0.4509456
- 0.2318747 0.2283527 0.2797819 0.4991897 0.170031  0.1490349 0.1498198
- 0.35471   0.1730581 4.1906567 2.130417  0.1360855 0.3552496 0.7715289]</t>
-  </si>
-  <si>
-    <t>[0.2735533 0.6319077 1.4307739 0.1720529 0.1901258 0.3986632 0.1831627
- 0.9712721 0.2845854 0.2735556 0.1823909 0.1173508 0.1154455 0.5009797
- 0.1447624 0.715456  0.3252157 1.5254196 0.2832598 0.307401  0.1644917
- 0.0954164 0.2838821 2.5183534 1.0632577 0.08551   0.210613  0.6255875
- 0.2498873 0.1135682 2.3584117 0.1430321 0.4143354 0.2100769 0.3051629
- 0.3485828 0.9628897 0.2557955 0.4186588 0.5265164 0.1123557 0.3571265
- 0.1560865 0.2169616 0.1720493 0.5073743 0.1090926 0.0995176 0.1055392
- 0.196863  0.098691  2.3716748 1.2869942 0.087285  0.2566877 0.3619714
- 0.3543427 0.2312508 0.4485099 0.2095235 0.2067034 0.7307727 0.3657869
- 0.348796  0.2418393 0.2797067 0.2274889 0.4670501 0.1181746 0.1915235
- 0.3023633 0.1136592 0.1712083 0.1033117 0.1182631 0.1375986 0.1550974
- 0.4889562 0.1690137 2.2380071 2.3263393 0.1169616 0.1876558 1.1715758]</t>
-  </si>
-  <si>
-    <t>[0.2304012 0.1239198 1.3660146 0.1637487 0.4246022 0.2425853 0.3731008
- 0.5367374 0.6645212 0.233204  0.3506048 0.4695604 0.2336355 0.602964
- 0.3200091 0.432669  0.3791073 0.9251959 0.2170164 0.2937002 0.1895416
- 0.3763279 0.2220978 4.1133667 2.2806811 0.2334714 0.4308982 0.5422774]</t>
-  </si>
-  <si>
-    <t>[0.2517344 0.1990233 2.6448022 0.209647  0.671943  0.2278789 0.3822782
- 0.5220395 0.9283702 0.3165867 0.4311981 0.4393477 0.2280621 0.6310445
- 0.2738576 0.4736335 0.3654837 1.6903731 0.2292553 0.2385723 0.1785383
- 0.3225172 0.2288867 3.6105236 1.5301536 0.1504386 0.4066646 0.6802618
- 0.5632672 0.2517757 0.4835342 0.2465514 0.2439555 0.7862694 0.3394616
- 0.4230541 0.2663624 0.3199277 0.425548  0.6888276 0.2226517 0.2681482
- 0.3963336 0.189209  0.2579866 0.1729149 0.2271734 0.2516107 0.244086
- 0.677819  0.3251607 2.4498434 3.2499075 0.1713888 0.2567555 0.9123856]</t>
-  </si>
-  <si>
-    <t>[0.1798304 0.1280623 2.8135359 0.1563211 0.4351277 0.2681502 0.3964402
- 0.3267533 0.7469277 0.2766168 0.4793847 0.5067144 0.1203142 0.5670904
- 0.1776136 0.3215791 0.1950769 1.4319047 0.1856449 0.1431702 0.1511271
- 0.2289517 0.1588828 3.3236413 1.3151881 0.1036876 0.278285  0.5397833
- 0.3779832 0.1550103 0.4346665 0.1622745 0.187612  0.9576477 0.2539824
- 0.2645027 0.1668842 0.2354253 0.2525063 0.5075692 0.1079023 0.1937338
- 0.2003643 0.1075559 0.122315  0.1208288 0.1235296 0.1434536 0.1715736
- 0.4300853 0.1768878 1.7096988 3.031612  0.1152156 0.1867833 0.8586532
- 0.409172  0.4653886 0.2649467 0.1572917 0.1254511 0.812039  0.2577977
- 0.2126198 0.1600363 0.3428438 0.2895525 0.3521443 0.3931878 0.2866083
- 0.8927955 0.3263786 0.2133531 0.1329788 0.5392846 0.3506686 0.1481828
- 0.4194274 0.3575468 1.9444879 1.3401321 0.1605385 0.386121  0.8558929]</t>
-  </si>
-  <si>
-    <t>[0.3515069 0.2202194 0.3312881 0.1831336 0.2630181 0.6412631 0.3486491
- 0.3696771 0.2400181 0.2701766 0.3543796 0.4371524 0.1743632 0.2979338
- 0.4816646 0.3173866 0.3275946 0.5619969 0.3255728 0.262309  0.2214523
- 0.6164744 0.3205214 2.2718387 3.5397586 0.2429852 0.2873319 0.8402621]</t>
-  </si>
-  <si>
-    <t>[0.3611484 0.1856703 0.5458389 0.1712678 0.2444518 0.8500481 0.3021657
- 0.3196962 0.258239  0.2778803 0.329384  0.5074575 0.1453446 0.3088507
- 0.313509  0.2241849 0.1614755 0.629177  0.1850213 0.2148122 0.2077265
- 0.484234  0.2430034 2.4565619 3.7810068 0.1387709 0.1858588 0.8373387
- 0.5061015 0.4115014 0.2508637 0.1829116 0.1263305 0.7486677 0.3353124
- 0.2339288 0.1676941 0.4452465 0.3062504 0.3777127 0.4011641 0.3145408
- 0.9664594 0.4607424 0.1755222 0.1768971 0.5634794 0.4527643 0.1726999
- 0.4360899 0.4291848 2.4435975 1.8259933 0.2306552 0.3034495 0.9392844]</t>
-  </si>
-  <si>
-    <t>[0.324408  0.2263632 0.503701  0.2052913 0.2736682 0.8068764 0.4019833
- 0.3433788 0.3651651 0.3274009 0.2743077 0.6815798 0.1723172 0.2973455
- 0.3442109 0.2361314 0.1936642 0.7085253 0.1570452 0.2124045 0.2719909
- 0.4139911 0.3019314 2.4352229 2.8055938 0.1075059 0.2126851 1.1209406
- 0.5260544 0.3945382 0.2971237 0.1576027 0.1547175 1.1297805 0.4581138
- 0.3129394 0.1883521 0.5264342 0.3076847 0.4170077 0.5250111 0.3068739
- 0.5800071 0.3373732 0.1229542 0.189818  0.3073008 0.2093421 0.1478806
- 0.4800863 0.4648383 2.0090619 1.6003099 0.1536551 0.2978298 0.8615131
- 0.5680054 0.4440113 0.2703142 0.2474036 0.116634  4.8076729 0.3590932
- 0.4389877 0.2206225 0.3944773 0.4170639 0.4663138 0.2405324 0.4561034
- 0.8201517 0.4304654 0.2195518 0.233035  1.6441724 0.771668  0.2167357
- 0.7922757 1.1416032 5.5805274 2.8149309 0.167752  0.6015609 0.3368259]</t>
-  </si>
-  <si>
-    <t>[0.4478376 0.4017468 0.2925387 0.2248739 0.1412166 0.6225022 0.3360416
- 0.2418652 0.1575562 0.4073767 0.2578833 0.4043931 0.411137  0.2589331
- 0.7909435 0.4989315 0.2481114 0.2348431 0.577416  0.4978087 0.2551101
- 0.5902818 0.6329108 3.7401204 3.5304306 0.3450529 0.343134  0.6574312]</t>
-  </si>
-  <si>
-    <t>[0.5031889 0.4072845 0.3290052 0.1785014 0.1434405 0.8264705 0.3655096
- 0.2673454 0.1976638 0.4594904 0.2949679 0.4177395 0.489616  0.2520708
- 0.7046052 0.3883338 0.1824851 0.2726414 0.3574408 0.2374358 0.2378561
- 0.5626774 0.5552394 2.4964974 2.1812413 0.2145449 0.3065792 1.2903426
- 0.5218732 0.4326993 0.2745015 0.1462738 0.1853534 3.9009194 0.3470828
- 0.5374813 0.2117322 0.2750322 0.54934   0.4088631 0.2485156 0.3871398
- 0.6301833 0.4037014 0.1941246 0.2270535 1.1911435 0.6061388 0.2330537
- 0.6287048 0.9994335 4.9515363 3.1180301 0.2182565 0.511233  0.2898483]</t>
-  </si>
-  <si>
-    <t>[0.4162309 0.3881098 0.3676287 0.1685877 0.1291957 0.7632128 0.3748155
- 0.1934473 0.1728753 0.3884662 0.2512269 0.3821393 0.5176424 0.3072148
- 0.5156017 0.3688395 0.1594484 0.2283177 0.2617937 0.1894593 0.1819733
- 0.4146379 0.4676611 1.3789044 1.5290441 0.1343577 0.2190622 0.7987912
- 0.4430905 0.4396967 0.2172381 0.2006077 0.1126637 3.7758155 0.2868814
- 0.2840705 0.1579087 0.2600135 0.4030922 0.2382513 0.1936587 0.2816219
- 0.4384796 0.2144415 0.1514152 0.1379456 1.048327  0.355485  0.1364543
- 0.4737711 0.6209417 3.0566392 2.588348  0.121683  0.3947073 0.1378563
- 0.1853335 0.1249246 0.3384709 0.1400041 0.1888175 3.0984349 0.848558
- 0.7753697 0.0845446 0.3708065 0.2489189 0.3755966 0.4171557 0.3261275
- 0.3006268 0.4800707 0.1076189 0.2262738 0.7380026 0.6720427 0.2302333
- 0.6485189 0.6584353 2.7408442 2.2802024 0.1476653 0.5788257 0.5461775]</t>
-  </si>
-  <si>
-    <t>[0.3167432 1.9110474 1.0206345 0.0861791 0.4276359 0.1950038 0.340072
- 0.4399052 0.1091139 0.1430478 0.3163241 0.1498414 0.2515528 0.3570024
- 0.2556915 0.1349645 0.3275045 0.1770266 0.3016687 0.1349448 0.5418251
- 0.2560565 0.2801109 1.0920335 2.4286707 0.2841882 0.3520764 0.2468605]</t>
-  </si>
-  <si>
-    <t>[16.2458094  1.8795885  5.9234707  0.3287369  0.1720561  0.278958
-  0.5229778  0.2443001  0.3363364  0.5183501  0.2535176  0.1674642
-  0.1372029  0.1159069  0.1053692  0.2227244  0.4868488  0.1558113
-  0.2050619  0.1758019  0.1702127  0.1405166  0.1276673  0.1983862
-  1.4057274  0.0759173  0.2080952  0.3299741  1.2231325  0.6152221
-  5.0425255  0.1588389  0.1463466  0.2865559  0.2412092  0.1245655
-  0.1379076  0.2639455  0.1136741  0.0860809  0.1694426  0.1403933
-  0.1336325  0.2949925  0.1762863  0.2636688  0.1897111  0.1891923
-  0.1971833  0.0768707  0.1088861  0.3113295  1.5134497  0.0803194
-  0.1173641  0.5762162  0.146719   0.216122   0.3814123  0.2203727
-  0.1521808  0.3292151  0.2197     0.6544666  0.2678658  0.2715958
-  0.1667785  0.2186608  0.0968534  0.4572118  0.1305719  0.2051131
-  0.1313533  0.8783785  0.1751881  0.157447   0.1881671  0.1033444
-  0.2859125  1.7381798  0.7190923  0.0372551  0.1454175  0.2341518
-  0.3389012  0.2066835  0.1915138  0.1341751  0.0879201  0.9606898
-  0.2866724  0.1792259  0.2308303  0.3159526  0.2567322  0.5825885
-  0.5662078  0.4375717  0.3417685  0.1757579  0.2179924  0.1877068
-  0.5610063  0.2214464  0.2522909  0.3249548  0.2020526  0.7548511
-  0.5723483  0.0877719  0.1508824  0.3814608]</t>
-  </si>
-  <si>
-    <t>[21.5565773  1.8797119  6.5406261  0.3796812  0.1042021  0.3603286
-  0.5234331  0.362232   0.3259536  0.3594604  0.1672919  0.2114281
-  0.1556349  0.0838116  0.0877931  0.1450074  0.7443496  0.1186849
-  0.1744874  0.1523042  0.1747704  0.1324514  0.1045811  0.1794957
-  0.6975996  0.0681388  0.2443378  0.3344216  2.0248708  0.5860495
-  6.1026755  0.1982992  0.1653008  0.2735386  0.187467   0.1339356
-  0.1493125  0.2127902  0.094789   0.0993556  0.1734606  0.1764806
-  0.0909841  0.3648319  0.135138   0.1752075  0.1818122  0.1549837
-  0.1903374  0.0545843  0.0992212  0.6306417  0.4604853  0.0536412
-  0.0938636  0.2977777  0.1366994  0.1583836  0.6264499  0.2348619
-  0.1354531  0.3435677  0.1530039  0.6392386  0.2214558  0.1963877
-  0.1508657  0.1582984  0.0670068  0.4212387  0.0938266  0.1262339
-  0.0869659  0.7639613  0.2329492  0.1354525  0.1500823  0.0657654
-  0.1809339  1.5000986  0.3008917  0.0433454  0.1504805  0.1782199
-  0.2086646  0.16299    2.2024757  0.1181272  0.3699555  0.2057466
-  0.3698742  0.1525596  0.7776133  0.3125403  0.2864327  0.5752532
-  0.0750714  0.2202444  0.0749899  0.0515661  0.0862624  0.167076
-  0.1487723  0.1363226  0.0869478  0.1732088  0.0864222  1.2352099
-  0.7353229  0.0380856  0.0871828  0.2836728  0.1997343  0.1007232
-  0.2232008  0.2189135  0.1594389  0.6264346  0.1563368  0.1854184
-  0.1669505  0.2548469  0.2645461  0.4976162  0.1347051  0.2017797
-  0.0639196  0.0598727  0.0738009  0.1080354  0.1415596  0.1057119
-  0.2075618  0.2009463  0.0952955  0.7840294  1.0385854  0.0488852
-  0.1345966  0.8882735  0.3405411  0.1695846  0.1541037  0.1509398
-  0.0794126  0.9533065  0.2272629  0.1919046  0.193027   0.2746497
-  0.2151529  0.4251469  0.5553947  0.4184628  0.284645   0.1594323
-  0.2684392  0.0921135  0.5134133  0.1619942  0.1611137  0.2169226
-  0.2272445  0.6004951  0.3771492  0.0870465  0.1462021  0.6112037]</t>
-  </si>
-  <si>
-    <t>[10.4765986  1.1099297  3.2129986  0.2083329  0.1308803  0.1163807
-  0.2976533  0.2311032  0.2446416  0.3085329  0.1499474  0.1000201
-  0.1320803  0.0927992  0.082108   0.0874721  0.3228649  0.092596
-  0.1078959  0.0682131  0.0825396  0.1010128  0.1010672  0.1551568
-  1.0926678  0.0494405  0.170739   0.3410329  0.6606181  0.3193438
-  2.7762865  0.1249433  0.1042225  0.1561605  0.1875041  0.0772846
-  0.0990516  0.1993045  0.0736171  0.0805064  0.1258286  0.074506
-  0.0963079  0.2002194  0.0637548  0.1225977  0.1671653  0.16255
-  0.1369611  0.0753011  0.0858185  0.3887734  1.4879776  0.054038
-  0.1150252  0.3553409  0.1756459  0.2780797  0.699131   0.2251744
-  0.1939849  0.3098582  0.2513121  0.75405    0.3126502  0.2757975
-  0.1619226  0.3056255  0.1222317  0.4360991  0.1321036  0.1676677
-  0.1709244  0.9756319  0.2356084  0.199236   0.2373316  0.0946902
-  0.2273787  1.5237152  0.3132788  0.0490292  0.1536315  0.2712175
-  0.4639955  0.3024611  0.3586609  0.2008051  0.1204587  1.0600325
-  0.3705353  0.2184231  0.3295307  0.4758427  0.3170279  0.6527374
-  0.7891352  0.6101218  0.4148596  0.1289683  0.2909744  0.1691914
-  0.5232626  0.3144603  0.2078441  0.2818413  0.1946156  1.2571225
-  0.759235   0.1080742  0.1943598  0.8331592 10.9944026  0.9438973
-  3.3219485  0.1870119  0.1239307  0.1458702  0.348448   0.1516424
-  0.1925372  0.3734885  0.1270491  0.1308233  0.1132921  0.0726677
-  0.0842449  0.1193688  0.3493618  0.0831867  0.1216387  0.0869334
-  0.1876315  0.1029934  0.0810831  0.235445   0.8780241  0.0480039
-  0.1262851  0.5188653  1.0970142  0.4316871  2.7527601  0.1303046
-  0.0998362  0.2380401  0.2260112  0.1051789  0.0968857  0.1680659
-  0.0676693  0.0724338  0.1594271  0.0809555  0.0781268  0.2046037
-  0.1152664  0.1112136  0.1709159  0.1112697  0.171414   0.0604671
-  0.1513693  0.3559404  1.0287947  0.0403066  0.0852006  0.3070083]</t>
+    <t>[ 0  2 24  1 27 16  9 20 23 18  8 15  6 17 19  3 26  7 10  5 11 22  4 14
+ 13 21 12 25]</t>
+  </si>
+  <si>
+    <t>[ 0  2 30 24  1 52 28 51 45 29 16 55  6 27  9 46  8 43  7  3 23 37 47 34
+ 33  5 48 11 44 20 26 15 10 18 50 19 40 31  4 36 42 54 41 22 13 32 21 17
+ 38 39 14 49 12 35 25 53]</t>
+  </si>
+  <si>
+    <t>[ 0  2 30 79  1 24 52 28 73 51 63 27 29 80 16 69  6  9  3 23 43  8 65  7
+ 58 33 62  5 55 59 37 75 61 67 64 46 71 83 40 74 34 10 78 76 26 47 12 56
+ 18 15 31 45 82 11 57 48 32 22 19 17 20 36 60 21 41 50 72 66  4 54 70 39
+ 44 13 38 35 42 14 49 77 68 25 81 53]</t>
+  </si>
+  <si>
+    <t>[24  2  0 23 15  1 27 17 16 18 19 20 22  9  5 21  6 13  7 14 12 26  8  4
+ 11 25  3 10]</t>
+  </si>
+  <si>
+    <t>[ 2 51 24  0 45 52 23  1 15 27 35 30 55 41 33 29 16 43 36 37 34 50 17  5
+ 18  9 39 13 46 12  6 44 22 31 47 19  7 28 20  4 42 26 32 21 38 14 54  8
+ 48  3 49 10 25 40 11 53]</t>
+  </si>
+  <si>
+    <t>[ 2 79 51  0 24 58  1 80 64 52 45 23 27 35 15 30 67 29 16 55  5 33 41 43
+ 62 60 36 17 37 73 61 65 69 63 77 66 19 82 56  7  9 83 20 12 70 38  6 18
+ 13 78 50 22 34 46 28  8 44 32 71 57 72 31  3 42  4 47 48 68 39 21 26 11
+ 59 14 74 10 54 75 76 40 25 49 53 81]</t>
+  </si>
+  <si>
+    <t>[23 24 17  2 15  7 27 13 16 19  1  5  9 26 22  8 20 18  0 10  4  3  6 14
+ 11 12 21 25]</t>
+  </si>
+  <si>
+    <t>[51 23 30 52 24 17  2  7 36 15 55 27 13  1 39 45  5 35 38 34 54  9 32 41
+ 16  8 22 19 49 18 42 37 44  0 28  3 26 33 43 20 10 50 14  6  4 40 29 12
+ 31 11 46 48 47 53 21 25]</t>
+  </si>
+  <si>
+    <t>[80 51 23 30 79 52  7 17  2 83 36 61 24 15 55 27 67 45 39 13 56  1 77 58
+ 32  5 41  9 63 70 38 19 34 35 16 65 22  8 66 54 37  3 18 64 57 72 76 69
+ 26 28 62 43 59 29 33 20 10 44  4 60  0 49 82 42 75 78 31 40 11 12 68 74
+ 14  6 46 50 71 81 73 47 53 48 25 21]</t>
+  </si>
+  <si>
+    <t>[23 24  2 17  8 13 27  7 15  4 11 26 10  6 21 16 19  9 14 22  5 12  0 18
+ 25  1 20  3]</t>
+  </si>
+  <si>
+    <t>[23 52 51  2 24 17 55  8 33 39 13  4 11 27 49 28  7  6 26 30 35 15 10 42
+ 38 46 34 37  9 16 44 21  5 14 41 29 50 31 36 47  0 48  3 54 19 18 32 53
+ 40 20 45 43 22 25  1 12]</t>
+  </si>
+  <si>
+    <t>[23 52 79  2 51 17 24 80 33 83 55 70 61  8 13 30 39 11 27  4 74 10 68 57
+  6 56 65 77 28 67  7 58 49 75 34 82 78 69 26 15 66 42 35 38 71 21 37  9
+  0 16 36 63 62  5 50 14 41 19 72 32 18  3 48 45 81 64 22 54 59 29 53 73
+ 40 20 12 76 31 47 60 44 46  1 43 25]</t>
+  </si>
+  <si>
+    <t>[24 23 27 21  5 17 14 11  0  6  7  2 10 15 16 19 13 22 18  9 26  4 25 20
+  1  8  3 12]</t>
+  </si>
+  <si>
+    <t>[24 51 23 52 27 42 55  5 33 11 46 17 21 43 28  2 47 40 37 13 50 41 34  0
+ 54 49 29 10 14 30  9  7  6 38 39  4  8 22 20 53 44 19 16 35 31 15  1 18
+ 26 45  3 25 12 36 48 32]</t>
+  </si>
+  <si>
+    <t>[79 61 80 24 51 23 52 74 27  5 55 78 33 70 75 42 82 17 21 11 28 56 39 37
+ 66 40 77 63 34  2 57 29 67  7 69  0 49 71  9 62 41 65 14 43 50 35 13  6
+  8 68 10 38 30 22 46 15  4 16 20 58 83 47 76 54 73 26 72 59  3 12 36 31
+ 64 25  1 19 45 18 53 32 44 48 60 81]</t>
+  </si>
+  <si>
+    <t>[23 24 27 14  5 15 18 22 21 19 11  9 12  0 25  6  1 13  2 10 26  7 16  3
+ 20 17  8  4]</t>
+  </si>
+  <si>
+    <t>[51 33 52 23 24 46 50  5 27 35 47 42 12 49 21 14 28  1  0  9 38 41 29 54
+ 11 43 15 39 22  2 18 34  6 37 10 40 19 30 13 26 55 17 48  7 20 45 44 31
+ 25  3  8 53 16  4 32 36]</t>
+  </si>
+  <si>
+    <t>[33 51 61 79 52 80 23 24 63  5 46 62 77 74 27 78 75 82 50 14 12 11 28 68
+  9 42 71  0 58 21 83 38 49 65 70 47 41 15 29 22 39 54  1 67 35 13 43 76
+ 30  6 19  2 18 69 26 10 34 37 40 66 17  7 60 73 20 25 81 36 31 56 59 45
+  8 44 53  3 16 55  4 57 32 48 64 72]</t>
+  </si>
+  <si>
+    <t>[24  1 23  2 20  4  7  6 27  0 13 16 10 26 25 18 14 22 21 12 17  5 19 11
+  9 15  8  3]</t>
+  </si>
+  <si>
+    <t>[  0   2  30  79  28   1  52  73 107  89  24  63  29  16 108 111  80 102
+  95  96  51   9   6  58  27   8  23  84  97  69   3  98  93  55  61  94
+  37 105  65  90  33  34 106  43  62  10  85  76  64  57  74  71  59   7
+  78  86  92   5  46  67  11  12  26  40 104  45  31  20 100  18  83  47
+  36  60  19  32 101  91 103  75  87  82  66  72  48  44  70  50 110  17
+  41  21  15  22  56  35   4  99  39  13 109  14  88  68  49  77  38  54
+  42  53  25  81]</t>
+  </si>
+  <si>
+    <t>[  0   2  30   1  28  86 107 163 145  24  52  79  73 135 117  29 139  63
+  92 136  16 108  95 123 167 164  88 152 158  51 111  27 153 154 151   9
+   8  23  58 140  69 114   3  33  94 133   6   5  46  93  61 146 122  90
+ 150 161   7  65 112  84 101  43  80  45 149  64  97  57  10  11  91 125
+  40  12 148  13  78 143  37  31  34  89 147 116 121  71 124 132 162  17
+  35 141 115  47 119 142  74  20  56 118  83 166  15  55 138  48  82 105
+ 126  26  18 110  21 160  36 157  98  41 128  32  60 159  62  67  87  76
+  44  50 129 156 120 127  66  59 130  75  19   4  68 102  39  99 134 113
+ 155  96  14  54 131  22 103  38 100  42  70 137  25  49  72 106 144 165
+  85  81  53 109 104  77]</t>
+  </si>
+  <si>
+    <t>[  0 112 114 142   2  30 136   1  73  89 113 164 107  24  79  52  63  95
+ 140 163 111  28  96  51  97 102  98  58  29 167  27  84 128  61  90  69
+  16  65  55 105 103  80  93 121 100 141  92 118   9  62  64  59   6 117
+  57 108  78 104  85 120  83  94  60  99  67   5 139  33   3 110   8 155
+  91  46 101 135 119  56 106  20  37  74 157 146  82 145  66 115  87  45
+   7 122  71  86 160  18  23 149  34  75  88  43 131  15 158 116 124 159
+  10  32  76  36 138  26 127  70  40  44  48  72 123  31 133 132 151 143
+ 152  12 156 153  47   4  68  11 144 162  41 148  54  42  19 130  77  21
+ 129  13 109 134 161  17  50 166 147  22  35 154 125  25  14 150  39  38
+ 165 126  49  53  81 137]</t>
+  </si>
+  <si>
+    <t>[5.853639  0.9341964 2.331584  0.251739  0.1638902 0.2119351 0.2680818
+ 0.2326971 0.2846658 0.3726782 0.2138781 0.2032409 0.1332597 0.1570788
+ 0.1606067 0.2788339 0.3745027 0.2558549 0.2882182 0.2519305 0.3233096
+ 0.1502563 0.2026909 0.3047917 1.6770113 0.0999804 0.2466584 0.4761308]</t>
+  </si>
+  <si>
+    <t>[8.3670489 1.0749577 2.5853377 0.2716568 0.1508375 0.2258761 0.3441866
+ 0.2750808 0.2836642 0.3242537 0.1661781 0.1979263 0.0991418 0.1264403
+ 0.1062153 0.1734224 0.3555192 0.1167534 0.1654854 0.1531453 0.1797217
+ 0.1184591 0.1307762 0.258681  1.127996  0.0827433 0.1741262 0.3274074
+ 0.4979488 0.3586412 2.5330343 0.1512238 0.1219085 0.2269695 0.2314179
+ 0.0975082 0.1489659 0.2337034 0.1153607 0.108232  0.1522358 0.1339092
+ 0.142863  0.2780492 0.190153  0.4431248 0.2997011 0.2316732 0.2122064
+ 0.1045585 0.1632326 0.4659673 1.0312636 0.0662507 0.140313  0.3533214]</t>
+  </si>
+  <si>
+    <t>[13.3286256  1.3751629  4.278959   0.3696872  0.1476733  0.2865034
+  0.4136519  0.3197122  0.3516665  0.3956525  0.2316252  0.1908593
+  0.2162539  0.1322257  0.1172407  0.1961218  0.5019264  0.173538
+  0.2099952  0.1840934  0.1715245  0.1631     0.1851103  0.3693272
+  1.3719791  0.0770324  0.2221747  0.675107   1.0120413  0.5687576
+  3.80431    0.1946257  0.1899841  0.2981684  0.2363982  0.1276236
+  0.1644285  0.268056   0.1288829  0.1410212  0.2382793  0.1537048
+  0.1185083  0.3597387  0.1356823  0.1944828  0.2550243  0.2183405
+  0.1900532  0.1088809  0.1511249  0.7225226  1.3718987  0.0581661
+  0.1449057  0.2834772  0.2119458  0.1906813  0.3046631  0.2726628
+  0.16433    0.2662863  0.2946403  0.7138381  0.2554161  0.3292262
+  0.1498053  0.2649055  0.0903076  0.489857   0.1426109  0.2480062
+  0.1498468  0.9024263  0.2381274  0.2673772  0.2282266  0.0944188
+  0.2313149  1.8825817  0.5063592  0.0735902  0.1923668  0.2393291]</t>
+  </si>
+  <si>
+    <t>[1.5122305 0.7726986 3.6297397 0.1719067 0.1927102 0.3072196 0.2516979
+ 0.2416673 0.2045276 0.3130012 0.1679107 0.1848716 0.2334581 0.2474977
+ 0.2341924 0.8310229 0.4840098 0.6561718 0.4061729 0.3709053 0.328517
+ 0.2798895 0.3203196 1.2495003 3.7174881 0.1762426 0.2203531 0.7565925]</t>
+  </si>
+  <si>
+    <t>[1.6222201 1.0271863 5.5165345 0.1672317 0.1930842 0.2654653 0.2204297
+ 0.2034046 0.1696172 0.2497906 0.1353265 0.1110312 0.2305259 0.2457413
+ 0.1711926 0.7629632 0.3630431 0.2660208 0.2632955 0.2086916 0.1948645
+ 0.1867368 0.2164483 1.1277998 2.5283227 0.1196278 0.1914881 0.7590536
+ 0.1987781 0.3852553 0.7205173 0.2149601 0.1870651 0.3984466 0.3014969
+ 0.7460667 0.3311717 0.311721  0.1809161 0.2458177 0.1134624 0.4242543
+ 0.191908  0.351495  0.2180215 1.2585718 0.2344292 0.2112459 0.1682776
+ 0.1511922 0.2748289 3.1017226 1.1689951 0.0666043 0.1700003 0.4310703]</t>
+  </si>
+  <si>
+    <t>[2.3279812 1.4635362 6.9408804 0.1625495 0.1575714 0.4039344 0.2245075
+ 0.2509779 0.1929384 0.2499555 0.1135911 0.1423465 0.241832  0.2194372
+ 0.1327606 0.7362631 0.4446714 0.3180647 0.2214537 0.2575235 0.2459064
+ 0.1466664 0.2114251 0.9012496 2.0944322 0.0897536 0.1466491 0.7667895
+ 0.2004197 0.5755083 0.6793426 0.1652068 0.1816559 0.3982826 0.2109151
+ 0.755997  0.3356726 0.3143632 0.2274792 0.1505122 0.0900328 0.3918396
+ 0.1579208 0.3869833 0.186953  0.9120422 0.2095663 0.1560839 0.1525626
+ 0.0844276 0.2136382 2.4089774 0.9237181 0.0750212 0.1130557 0.4049143
+ 0.2525803 0.1683516 1.7008001 0.1411501 0.3396035 0.3069975 0.3441477
+ 0.2997583 0.9556347 0.3044456 0.2730943 0.6548548 0.1516489 0.3003689
+ 0.2312066 0.1798738 0.1679326 0.3086693 0.1234131 0.1042323 0.1002336
+ 0.2951097 0.2171814 2.6816437 1.2936639 0.0579934 0.2542495 0.2497541]</t>
+  </si>
+  <si>
+    <t>[0.2411848 0.385744  1.0137703 0.1920673 0.2057506 0.3355767 0.1887737
+ 0.7800588 0.2593792 0.31314   0.2213338 0.1872446 0.171461  0.5192318
+ 0.1887201 0.8032494 0.4505169 1.078364  0.2479836 0.4256074 0.2593461
+ 0.1521147 0.2706131 4.1528016 1.7368895 0.1416331 0.3065468 0.5308055]</t>
+  </si>
+  <si>
+    <t>[0.2319201 0.5405041 1.1714436 0.2090314 0.1706806 0.3822185 0.170735
+ 0.8947854 0.3132962 0.3578612 0.1909062 0.1460968 0.1547071 0.5713837
+ 0.1774109 0.7320503 0.3135543 1.2069168 0.2671456 0.2923927 0.1914963
+ 0.1028869 0.3059774 3.1916571 1.2330388 0.0990879 0.2064326 0.5792959
+ 0.2112547 0.1566156 1.693661  0.1513153 0.3567654 0.2041661 0.362909
+ 0.3773872 0.7354755 0.2359286 0.3773611 0.514736  0.1612659 0.3402673
+ 0.2432957 0.2027934 0.2356061 0.4414349 0.1404471 0.1105791 0.131265
+ 0.2868561 0.1804935 3.4784827 1.5295834 0.1059296 0.3618487 0.6021032]</t>
+  </si>
+  <si>
+    <t>[0.1858808 0.5082416 1.3398306 0.2708867 0.189266  0.4557453 0.1387354
+ 1.491856  0.3260721 0.3862575 0.1975808 0.1612258 0.1563778 0.5989616
+ 0.1441571 0.8281356 0.3461734 1.4497593 0.2676946 0.3533493 0.2022119
+ 0.085314  0.3270795 2.6720926 0.9406964 0.0906126 0.2415677 0.6778038
+ 0.2413212 0.2170387 2.4949356 0.1690719 0.4562927 0.2103432 0.3511679
+ 0.3491067 1.1028763 0.2766936 0.3581793 0.603883  0.1616206 0.4181646
+ 0.1813842 0.2289431 0.1957126 0.6490218 0.1377071 0.1180363 0.0910077
+ 0.1858322 0.1376924 2.8695777 1.8034588 0.1025085 0.3142489 0.8029398
+ 0.5779699 0.2654619 0.4982812 0.2249997 0.1888972 1.0813571 0.2405287
+ 0.3713069 0.2670298 0.3382932 0.3144835 0.6732018 0.1495394 0.2423941
+ 0.3595923 0.1366467 0.2512725 0.1266095 0.1493076 0.1788762 0.2475657
+ 0.5075691 0.1784348 2.4541696 2.8942823 0.1314289 0.1852662 1.1872342]</t>
+  </si>
+  <si>
+    <t>[0.225314  0.1965423 1.125093  0.1704474 0.4150806 0.2315124 0.347823
+ 0.4556752 0.6703003 0.2745001 0.3895707 0.409217  0.2290042 0.6189523
+ 0.2709396 0.4197962 0.3299535 0.8556734 0.2146001 0.2828722 0.191844
+ 0.3377865 0.2439986 4.1847354 1.949553  0.2004191 0.4048526 0.5436329]</t>
+  </si>
+  <si>
+    <t>[0.1988236 0.1228717 1.892469  0.1747471 0.5021363 0.229625  0.3940535
+ 0.4181788 0.74976   0.2638535 0.3113697 0.4834525 0.1227852 0.563074
+ 0.2228621 0.3120969 0.2575095 0.9760405 0.1625071 0.1715932 0.1481336
+ 0.2312242 0.1333197 2.9715699 1.7833434 0.1321292 0.3901065 0.4667777
+ 0.4442478 0.2217296 0.3781116 0.2108427 0.1599056 0.6417253 0.2710956
+ 0.3558776 0.2030711 0.2702437 0.2792919 0.5923705 0.1565627 0.2219301
+ 0.3038262 0.1386278 0.2438948 0.1406422 0.2733153 0.2019347 0.1854976
+ 0.4624076 0.2195146 1.9926562 2.9134273 0.1574264 0.1732167 0.8168571]</t>
+  </si>
+  <si>
+    <t>[0.2828483 0.1380721 2.6054084 0.2097629 0.6099935 0.2505028 0.5025663
+ 0.4265667 0.8084913 0.2981501 0.559409  0.658668  0.1604423 0.8040972
+ 0.2333452 0.361808  0.2720428 1.7673262 0.2156705 0.224666  0.1642596
+ 0.3217601 0.1833417 3.7540972 1.6487161 0.1138441 0.3636087 0.6371941
+ 0.4533513 0.176759  0.7757689 0.157436  0.2160734 1.1646695 0.392655
+ 0.3372463 0.267435  0.3064928 0.333669  0.6588077 0.1691482 0.2264536
+ 0.3583629 0.1183109 0.1419959 0.2009676 0.1407666 0.1449432 0.2026021
+ 0.4146152 0.2347169 2.4695516 3.4004059 0.1724232 0.1788945 1.0292546
+ 0.4888975 0.518764  0.4253362 0.177856  0.1424034 0.9807565 0.2572497
+ 0.264176  0.1887243 0.4873861 0.3587106 0.4453022 0.5199778 0.3647983
+ 1.0014197 0.3226726 0.2223059 0.1709595 0.5864819 0.3950037 0.1594673
+ 0.4750119 0.3706699 2.9697416 1.5845114 0.1931936 0.3866084 1.1296991]</t>
+  </si>
+  <si>
+    <t>[0.4629194 0.258689  0.4247386 0.2197581 0.2737313 0.6965891 0.4381178
+ 0.4253149 0.2565636 0.3107547 0.4037634 0.4767891 0.2041783 0.3461641
+ 0.5440971 0.3806512 0.3713898 0.580078  0.3184697 0.358711  0.2635665
+ 0.7134244 0.335769  2.7338938 4.3831158 0.2686126 0.3080909 0.8839538]</t>
+  </si>
+  <si>
+    <t>[0.3487523 0.1857321 0.4012844 0.156634  0.2338133 0.7019998 0.3001857
+ 0.3006113 0.2271401 0.3051156 0.3163063 0.504606  0.147236  0.3694472
+ 0.3102705 0.192702  0.195003  0.4830748 0.1798418 0.200998  0.2205774
+ 0.4458055 0.2270084 2.1260135 4.1809877 0.1480679 0.1751061 0.8695695
+ 0.4155329 0.3226415 0.3064195 0.193028  0.0990123 0.56517   0.3515834
+ 0.194605  0.1411939 0.3797024 0.2809182 0.2775162 0.3818619 0.3633639
+ 0.8497249 0.4196413 0.2044812 0.1573986 0.5033363 0.3873254 0.1214687
+ 0.3237629 0.3646832 2.4377629 1.7061989 0.2062796 0.3279335 0.7411803]</t>
+  </si>
+  <si>
+    <t>[0.4194029 0.1876575 0.4852317 0.2072849 0.2885589 1.0725973 0.3466183
+ 0.4296604 0.3445732 0.3957128 0.3399381 0.6538338 0.2064478 0.3573697
+ 0.3757832 0.3125339 0.2884611 0.708258  0.1743586 0.1816178 0.2638076
+ 0.6539252 0.3229173 2.273044  3.044586  0.1886109 0.2199391 1.2359228
+ 0.5942819 0.4653521 0.3290417 0.195371  0.1684276 0.8783043 0.5093708
+ 0.3612261 0.2057696 0.5569337 0.3295116 0.5621948 0.5489467 0.3816375
+ 0.7664991 0.3740065 0.1545816 0.1780484 0.3189594 0.241037  0.1501482
+ 0.407918  0.371284  2.344111  2.0204935 0.1716572 0.2334647 0.98288
+ 0.5759585 0.4795908 0.2570369 0.2082421 0.1388735 4.6779082 0.3902471
+ 0.5181461 0.1938961 0.3804778 0.550745  0.4450777 0.3418877 0.4220878
+ 0.8721966 0.4056261 0.2102314 0.2223718 1.6907594 0.8029607 0.2371931
+ 0.545686  0.9573749 5.8826274 3.9517471 0.1174619 0.7094967 0.2418606]</t>
+  </si>
+  <si>
+    <t>[0.4026286 0.3190288 0.3137872 0.2317738 0.151009  0.6607043 0.3784252
+ 0.263047  0.1513342 0.4317459 0.3129392 0.4460931 0.4187831 0.3172344
+ 0.8421159 0.5978433 0.2531798 0.2161884 0.5963651 0.5050565 0.2281897
+ 0.5706673 0.5875905 3.6421994 3.6303452 0.3950087 0.3068076 0.8937278]</t>
+  </si>
+  <si>
+    <t>[0.4596163 0.4684867 0.3444085 0.1758197 0.1570129 0.82147   0.3081334
+ 0.2159079 0.169979  0.4542633 0.2973297 0.3839382 0.5426394 0.2671282
+ 0.4959634 0.3635151 0.1655765 0.236576  0.3255665 0.2729899 0.2139087
+ 0.5030284 0.3549689 2.2896856 1.5428282 0.1948401 0.2460346 0.7786297
+ 0.4837281 0.3944968 0.2691946 0.1993309 0.1443777 3.3977203 0.3192334
+ 0.6267385 0.1388684 0.30778   0.4429194 0.3602257 0.2762761 0.4400267
+ 0.5775855 0.3810745 0.199588  0.2067595 1.2228529 0.6158851 0.2182562
+ 0.5126107 0.9101411 5.1285428 2.9933336 0.1688993 0.3915289 0.2393917]</t>
+  </si>
+  <si>
+    <t>[0.415175  0.2864041 0.2468142 0.1340554 0.122215  0.9118956 0.2541851
+ 0.1950851 0.1394503 0.4266053 0.2376364 0.4680517 0.4836555 0.2823576
+ 0.4981791 0.3241533 0.1335793 0.2105908 0.2442693 0.2506692 0.1731151
+ 0.3996834 0.298184  1.5895808 1.2454757 0.1707187 0.2393853 0.6769791
+ 0.4463654 0.316257  0.2550853 0.1603933 0.1100565 4.2572152 0.2331898
+ 0.2830294 0.1656558 0.2322198 0.375492  0.2954764 0.2288161 0.3412057
+ 0.4207214 0.273644  0.1361064 0.1435111 0.8457098 0.3416726 0.110009
+ 0.3704599 0.5383216 3.3480941 1.9079891 0.1348408 0.2891234 0.1255411
+ 0.1574426 0.1167305 0.4056783 0.1452796 0.1897796 3.0312561 0.8408753
+ 1.0057854 0.0985713 0.3701955 0.2181871 0.2832327 0.4380864 0.2431737
+ 0.3474762 0.4163017 0.0825077 0.1864654 0.7511002 0.5853853 0.2597144
+ 0.7701369 0.610474  2.7194602 1.8523508 0.1672093 0.5752961 0.3943531]</t>
+  </si>
+  <si>
+    <t>[0.404654  2.326331  1.1798219 0.1060945 0.6107854 0.2266424 0.4371483
+ 0.5458858 0.1298887 0.1720296 0.3826697 0.1827473 0.2967664 0.4044977
+ 0.3195028 0.1561147 0.3996912 0.2549114 0.3337694 0.209226  0.6893083
+ 0.3104987 0.3112801 1.1809902 2.8469534 0.3441428 0.3713995 0.409387 ]</t>
+  </si>
+  <si>
+    <t>[16.243635   1.3744889  5.0956592  0.3178632  0.1122899  0.2109185
+  0.3930252  0.2294634  0.3595387  0.4171816  0.2488184  0.2091799
+  0.2073419  0.1072547  0.1010444  0.1314333  0.588917   0.1364503
+  0.1798902  0.1718116  0.1896741  0.1338752  0.1309154  0.3517483
+  0.7419377  0.0574117  0.2033053  0.3692234  1.7180514  0.6295471
+  5.0010992  0.1932656  0.169484   0.2799435  0.274975   0.1150812
+  0.1727067  0.2895146  0.0895103  0.108225   0.2032831  0.1341031
+  0.0795715  0.254559   0.1401395  0.200525   0.210014   0.173616
+  0.1402415  0.0922562  0.1386636  0.4877148  1.3563289  0.0581873
+  0.0884384  0.3054055  0.1290697  0.2405668  0.3929628  0.2295291
+  0.1724354  0.3032202  0.2526286  0.6643798  0.2407368  0.2815032
+  0.1477702  0.2099041  0.095713   0.3180533  0.1393469  0.2353819
+  0.1404928  1.1235379  0.2400195  0.1603131  0.2471006  0.0922537
+  0.2243431  1.8934169  0.5520531  0.0560622  0.1580175  0.1785847
+  0.323591   0.2485612  0.2165725  0.1595753  0.09804    0.9252647
+  0.2803437  0.1623224  0.21105    0.3077449  0.2962883  0.5183701
+  0.5077005  0.321282   0.3169469  0.1094015  0.1890715  0.1694219
+  0.5440864  0.1620764  0.2007759  0.2834363  0.2626066  1.1225912
+  0.5657691  0.1032411  0.1365633  0.5631477]</t>
+  </si>
+  <si>
+    <t>[22.75516    2.3982949  7.7142006  0.3438821  0.1254448  0.3094898
+  0.3102481  0.2796569  0.4220727  0.4255084  0.2521026  0.245317
+  0.2284028  0.2194833  0.1101298  0.1720858  0.6846625  0.1929723
+  0.1621064  0.1279774  0.17631    0.161766   0.1075534  0.416506
+  1.1780371  0.0850576  0.1637228  0.4693036  2.1087155  0.8922995
+  7.3169908  0.2072277  0.1480965  0.3321942  0.206312   0.1909113
+  0.159796   0.2158346  0.1032485  0.1222964  0.2304941  0.1499479
+  0.0986912  0.2602208  0.1416126  0.2551286  0.308127   0.1832437
+  0.1697073  0.0825845  0.1390942  0.5327248  1.1483632  0.0645079
+  0.1099832  0.1718849  0.1758838  0.2524253  0.4072048  0.1294496
+  0.1475416  0.3036669  0.1443752  0.8422769  0.2544373  0.2768304
+  0.1297259  0.1430484  0.1252968  0.3579183  0.0920612  0.1990532
+  0.0792023  1.0751176  0.1778348  0.1283894  0.1421206  0.0509211
+  0.2178645  1.120269   0.259829   0.0678142  0.1653292  0.1744095
+  0.261034   0.0687115  1.825799   0.1428927  0.5943711  0.2045053
+  0.288538   0.2448706  0.7184484  0.3047571  0.3201528  0.6681502
+  0.1122852  0.2533367  0.1518254  0.1180418  0.1021429  0.2605743
+  0.1247294  0.1039608  0.0520444  0.1641057  0.0749738  1.5301071
+  0.6830448  0.0520991  0.161837   0.5047606  0.2659325  0.1164523
+  0.3513587  0.1842398  0.2002263  0.9031223  0.1750518  0.1799454
+  0.1333467  0.1996381  0.3003338  0.6482987  0.1955289  0.243296
+  0.1639483  0.1326088  0.1488242  0.1356346  0.1286813  0.1078654
+  0.1943063  0.3137691  0.1176229  0.9696951  0.7003894  0.0888001
+  0.1701681  0.8882668  0.3595288  0.1869898  0.1791147  0.2175561
+  0.0717917  1.1830357  0.3023633  0.2035368  0.2228209  0.2547265
+  0.2872573  0.4323523  0.5898488  0.4548578  0.4530892  0.1141318
+  0.1355582  0.1543288  0.5520625  0.1453593  0.1615839  0.2848234
+  0.1941049  1.2820298  0.6143911  0.0688559  0.1721329  0.6267604]</t>
+  </si>
+  <si>
+    <t>[14.059962   1.7458752  4.4202299  0.279499   0.1309255  0.297406
+  0.3467386  0.218468   0.2696199  0.3884491  0.1688341  0.1281375
+  0.1415752  0.1131112  0.0883887  0.1928339  0.4591126  0.1019616
+  0.2032939  0.1171319  0.2473942  0.1140135  0.0979688  0.2032756
+  1.4476776  0.0887454  0.1588734  0.527991   0.8351017  0.5879259
+  3.7117125  0.1514552  0.168322   0.2826739  0.2005662  0.0969699
+  0.1628848  0.2439738  0.0807834  0.0821884  0.1560676  0.1240267
+  0.1190519  0.1951245  0.154432   0.2198957  0.2593929  0.1316957
+  0.1541487  0.0593327  0.1007972  0.7213177  1.2687207  0.0565207
+  0.1200711  0.4518704  0.2511419  0.3444517  0.6201025  0.3556288
+  0.3038699  0.5063479  0.3823646  1.0828976  0.3719998  0.4559606
+  0.2241925  0.297811   0.1287302  0.4746068  0.158139   0.2095522
+  0.1533569  1.6136162  0.236205   0.2004169  0.1668009  0.1152695
+  0.3342971  1.3421358  0.4256555  0.0520436  0.2256518  0.3128545
+  0.5261167  0.3204558  0.2085955  0.2203992  0.1988163  1.5872293
+  0.4930502  0.2615251  0.3929022  0.4244771  0.3055383  1.0575213
+  0.7764403  0.6930992  0.6427634  0.3009077  0.410032   0.2568189
+  0.6477492  0.4443113  0.327217   0.4499266  0.2500589  1.4620448
+  0.3442723  0.1071945  0.2720636  0.8367003 13.2534467  1.5509016
+  4.6357431  0.2233402  0.1904488  0.3458813  0.3907786  0.2519666
+  0.3160178  0.4175612  0.2111197  0.1521788  0.1861742  0.0934501
+  0.0754939  0.1582663  0.5179092  0.1135392  0.1165058  0.1928546
+  0.1482536  0.1499932  0.1070466  0.2563069  1.7619102  0.0518907
+  0.1628611  0.2852054  0.8979832  0.4003067  4.4320918  0.1421857
+  0.1271247  0.2242933  0.2283574  0.0983505  0.1208993  0.203138
+  0.0875295  0.1425368  0.1418306  0.1350315  0.0957927  0.262803
+  0.1392755  0.2320711  0.1910601  0.1786148  0.2069758  0.1021368
+  0.1265279  0.8693142  1.4849796  0.077585   0.1001506  0.5394216]</t>
   </si>
   <si>
     <t>_1</t>
@@ -917,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.64</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C2">
-        <v>0.65300000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D2">
-        <v>0.65100000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.65700000000000003</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C3">
-        <v>0.66</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D3">
-        <v>0.65400000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.64</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C4">
-        <v>0.66100000000000003</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D4">
-        <v>0.64200000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.65200000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C5">
-        <v>0.65300000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D5">
-        <v>0.64</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.65200000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C6">
-        <v>0.64400000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D6">
-        <v>0.64400000000000002</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.69199999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C7">
-        <v>0.67900000000000005</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D7">
-        <v>0.67600000000000005</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.69099999999999995</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C8">
-        <v>0.68100000000000005</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D8">
-        <v>0.67900000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.68100000000000005</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C9">
-        <v>0.67800000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D9">
-        <v>0.66400000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.68799999999999994</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C10">
-        <v>0.69</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D10">
-        <v>0.69399999999999995</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.66400000000000003</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="C11">
-        <v>0.68799999999999994</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D11">
-        <v>0.68600000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.68200000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C12">
-        <v>0.68</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D12">
-        <v>0.69899999999999995</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.68799999999999994</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C13">
-        <v>0.68300000000000005</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D13">
-        <v>0.69799999999999995</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,13 +1085,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.69299999999999995</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="C14">
-        <v>0.69699999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D14">
-        <v>0.69499999999999995</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.68200000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="C15">
-        <v>0.68700000000000006</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D15">
-        <v>0.69399999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.69399999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C16">
-        <v>0.67900000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="D16">
-        <v>0.70199999999999996</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.73299999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C17">
-        <v>0.753</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17">
-        <v>0.76800000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.72399999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C18">
-        <v>0.73799999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D18">
-        <v>0.75600000000000001</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.72</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C19">
-        <v>0.72599999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D19">
-        <v>0.76300000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.71099999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C20">
-        <v>0.745</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D20">
-        <v>0.76</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.73599999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C21">
-        <v>0.73599999999999999</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D21">
-        <v>0.76900000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.72499999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C22">
-        <v>0.73699999999999999</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D22">
-        <v>0.76300000000000001</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.73299999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C23">
-        <v>0.75</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D23">
-        <v>0.747</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.72</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C24">
-        <v>0.73799999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D24">
-        <v>0.74099999999999999</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.72799999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C25">
-        <v>0.746</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D25">
-        <v>0.754</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.73099999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C26">
-        <v>0.74099999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D26">
-        <v>0.746</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.73899999999999999</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="C27">
-        <v>0.748</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D27">
-        <v>0.76600000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.748</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="C28">
-        <v>0.75800000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D28">
-        <v>0.77100000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.749</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C29">
-        <v>0.747</v>
+        <v>0.62</v>
       </c>
       <c r="D29">
-        <v>0.76200000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1309,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.73699999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C30">
-        <v>0.749</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D30">
-        <v>0.76100000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.73099999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="C31">
-        <v>0.754</v>
+        <v>0.624</v>
       </c>
       <c r="D31">
-        <v>0.77700000000000002</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.70799999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C32">
-        <v>0.72799999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D32">
-        <v>0.73299999999999998</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.71199999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="C33">
-        <v>0.71199999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D33">
-        <v>0.73</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.70099999999999996</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C34">
-        <v>0.70599999999999996</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D34">
-        <v>0.73299999999999998</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.70699999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C35">
-        <v>0.71</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D35">
-        <v>0.73</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.69799999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C36">
-        <v>0.72</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D36">
-        <v>0.73899999999999999</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.70599999999999996</v>
+        <v>0.623</v>
       </c>
       <c r="C37">
-        <v>0.69499999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D37">
-        <v>0.72899999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,13 +1421,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.71599999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="C38">
-        <v>0.71599999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D38">
-        <v>0.73199999999999998</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.69699999999999995</v>
+        <v>0.621</v>
       </c>
       <c r="C39">
-        <v>0.71199999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D39">
-        <v>0.73299999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,13 +1449,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.70099999999999996</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C40">
-        <v>0.71199999999999997</v>
+        <v>0.629</v>
       </c>
       <c r="D40">
-        <v>0.74199999999999999</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.72699999999999998</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="C41">
-        <v>0.73199999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D41">
-        <v>0.73199999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,13 +1477,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.68300000000000005</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="C42">
-        <v>0.70599999999999996</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D42">
-        <v>0.71799999999999997</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,13 +1491,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.70299999999999996</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C43">
-        <v>0.68</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D43">
-        <v>0.69799999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,13 +1505,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.69199999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C44">
-        <v>0.69099999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D44">
-        <v>0.70599999999999996</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.70099999999999996</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C45">
-        <v>0.67900000000000005</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D45">
-        <v>0.72599999999999998</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>0.69699999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C46">
-        <v>0.68</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D46">
-        <v>0.7</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,13 +1547,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.68799999999999994</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C47">
-        <v>0.66800000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D47">
-        <v>0.67300000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,13 +1561,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.69699999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C48">
-        <v>0.67100000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D48">
-        <v>0.68400000000000005</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.65900000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="C49">
-        <v>0.68500000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="D49">
-        <v>0.68400000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,13 +1589,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="C50">
-        <v>0.67400000000000004</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D50">
-        <v>0.69499999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.69499999999999995</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C51">
-        <v>0.68300000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="D51">
-        <v>0.66200000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,13 +1617,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.71</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C52">
-        <v>0.68300000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D52">
-        <v>0.69299999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.70099999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="C53">
-        <v>0.69799999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="D53">
-        <v>0.70699999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,13 +1645,13 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.68500000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="C54">
-        <v>0.70199999999999996</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D54">
-        <v>0.68200000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.69899999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C55">
-        <v>0.68500000000000005</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D55">
-        <v>0.70299999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.71099999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C56">
-        <v>0.68700000000000006</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D56">
-        <v>0.7</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.68400000000000005</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C57">
-        <v>0.71099999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="D57">
-        <v>0.74</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.68899999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C58">
-        <v>0.7</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D58">
-        <v>0.72199999999999998</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.69299999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C59">
-        <v>0.71699999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="D59">
-        <v>0.70099999999999996</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,13 +1729,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.69699999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C60">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D60">
-        <v>0.71499999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.69799999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C61">
-        <v>0.70399999999999996</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D61">
-        <v>0.73199999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.63800000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C62">
-        <v>0.63500000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D62">
-        <v>0.59399999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,13 +1771,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.63600000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C63">
-        <v>0.61799999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D63">
-        <v>0.57499999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.63100000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C64">
-        <v>0.622</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D64">
-        <v>0.60299999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,13 +1799,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.63800000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="C65">
-        <v>0.623</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D65">
-        <v>0.58599999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,13 +1813,13 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>0.64100000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C66">
-        <v>0.64200000000000002</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D66">
-        <v>0.58699999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,13 +1827,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.64200000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C67">
-        <v>0.67</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D67">
-        <v>0.64200000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.61</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C68">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="D68">
-        <v>0.67400000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.61299999999999999</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="C69">
-        <v>0.65300000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D69">
-        <v>0.65900000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,13 +1869,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.627</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C70">
-        <v>0.66300000000000003</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D70">
-        <v>0.65200000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,13 +1883,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.63200000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C71">
-        <v>0.67500000000000004</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D71">
-        <v>0.63100000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.50800000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C72">
-        <v>0.50800000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D72">
-        <v>0.52900000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,13 +1911,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.51400000000000001</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="C73">
-        <v>0.51300000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D73">
-        <v>0.55500000000000005</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.47499999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C74">
-        <v>0.50700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D74">
-        <v>0.53400000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,13 +1939,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.50800000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="C75">
-        <v>0.47799999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="D75">
-        <v>0.53700000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.52700000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C76">
+        <v>0.503</v>
+      </c>
+      <c r="D76">
         <v>0.51700000000000002</v>
-      </c>
-      <c r="D76">
-        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,13 +1967,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.61499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="C77">
-        <v>0.63500000000000001</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D77">
-        <v>0.61899999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,13 +1981,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.625</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C78">
-        <v>0.65600000000000003</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D78">
-        <v>0.61899999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,13 +1995,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.61599999999999999</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="C79">
-        <v>0.63</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="D79">
-        <v>0.61299999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,13 +2009,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.60299999999999998</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="C80">
-        <v>0.64100000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D80">
-        <v>0.61499999999999999</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>19</v>
       </c>
       <c r="B81">
-        <v>0.64</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C81">
-        <v>0.64</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D81">
-        <v>0.61399999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,10 +2040,10 @@
         <v>0.496</v>
       </c>
       <c r="C82">
-        <v>0.52100000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D82">
-        <v>0.59099999999999997</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.52</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C83">
-        <v>0.54500000000000004</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D83">
-        <v>0.58099999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,13 +2065,13 @@
         <v>20</v>
       </c>
       <c r="B84">
-        <v>0.52600000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="C84">
-        <v>0.53700000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="D84">
-        <v>0.59699999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.51500000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C85">
-        <v>0.53800000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D85">
-        <v>0.59</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.56200000000000006</v>
+        <v>0.48</v>
       </c>
       <c r="C86">
-        <v>0.499</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D86">
-        <v>0.56200000000000006</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,13 +2107,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.55400000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C87">
-        <v>0.59599999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D87">
-        <v>0.624</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,13 +2121,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.57199999999999995</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="C88">
-        <v>0.58499999999999996</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D88">
-        <v>0.64</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>0.58899999999999997</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="C89">
-        <v>0.58799999999999997</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D89">
-        <v>0.58399999999999996</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,13 +2149,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.56499999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="C90">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D90">
         <v>0.60599999999999998</v>
-      </c>
-      <c r="D90">
-        <v>0.628</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.56899999999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="C91">
-        <v>0.56999999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D91">
-        <v>0.61399999999999999</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,13 +2177,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.65700000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C92">
-        <v>0.64800000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D92">
-        <v>0.64300000000000002</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,13 +2191,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.66100000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C93">
-        <v>0.63200000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D93">
-        <v>0.63800000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,13 +2205,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.63400000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C94">
-        <v>0.64600000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D94">
-        <v>0.628</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.64500000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C95">
-        <v>0.64100000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D95">
-        <v>0.623</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.63700000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="C96">
-        <v>0.64900000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D96">
-        <v>0.621</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,13 +2247,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.70299999999999996</v>
+        <v>0.627</v>
       </c>
       <c r="C97">
-        <v>0.70699999999999996</v>
+        <v>0.624</v>
       </c>
       <c r="D97">
-        <v>0.72099999999999997</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C98">
-        <v>0.71899999999999997</v>
+        <v>0.63</v>
       </c>
       <c r="D98">
-        <v>0.72899999999999998</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,13 +2275,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.7</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C99">
-        <v>0.71599999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="D99">
-        <v>0.71799999999999997</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,13 +2289,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="C100">
-        <v>0.71499999999999997</v>
+        <v>0.627</v>
       </c>
       <c r="D100">
-        <v>0.72299999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.69899999999999995</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C101">
-        <v>0.71899999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D101">
-        <v>0.72199999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,13 +2317,13 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>0.71599999999999997</v>
+        <v>0.622</v>
       </c>
       <c r="C102">
-        <v>0.71899999999999997</v>
+        <v>0.66</v>
       </c>
       <c r="D102">
-        <v>0.73299999999999998</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,13 +2331,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.70899999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="C103">
-        <v>0.71599999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D103">
-        <v>0.753</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,13 +2345,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.71099999999999997</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C104">
-        <v>0.72899999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D104">
-        <v>0.747</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,13 +2359,13 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.70699999999999996</v>
+        <v>0.629</v>
       </c>
       <c r="C105">
-        <v>0.72099999999999997</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D105">
-        <v>0.73899999999999999</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,13 +2373,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.72299999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="C106">
-        <v>0.72599999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="D106">
-        <v>0.73299999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,13 +2387,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.68600000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C107">
-        <v>0.70099999999999996</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D107">
-        <v>0.72099999999999997</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.70199999999999996</v>
+        <v>0.622</v>
       </c>
       <c r="C108">
-        <v>0.71799999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="D108">
-        <v>0.69899999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,13 +2415,13 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>0.68300000000000005</v>
+        <v>0.627</v>
       </c>
       <c r="C109">
-        <v>0.72299999999999998</v>
+        <v>0.624</v>
       </c>
       <c r="D109">
-        <v>0.72299999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,13 +2429,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.69399999999999995</v>
+        <v>0.629</v>
       </c>
       <c r="C110">
-        <v>0.69599999999999995</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D110">
-        <v>0.71599999999999997</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.69799999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="C111">
-        <v>0.71799999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="D111">
-        <v>0.71799999999999997</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2684,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D331"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.64</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2726,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.65300000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2740,7 +2740,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.65100000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2754,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.65700000000000003</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2768,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.66</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2782,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.65400000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2796,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.64</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.66100000000000003</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2824,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.64200000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2838,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.65200000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.65300000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2866,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.64</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2880,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.65200000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2894,7 +2894,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.64400000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.64400000000000002</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2922,7 +2922,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.69199999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2936,7 +2936,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.67900000000000005</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2950,7 +2950,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.67600000000000005</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2964,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.69099999999999995</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2978,7 +2978,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.68100000000000005</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2992,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.67900000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -3006,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.68100000000000005</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3020,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.67800000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3034,7 +3034,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.66400000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.68799999999999994</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3062,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.69</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3076,7 +3076,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.69399999999999995</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3090,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.66400000000000003</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3104,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.68799999999999994</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3118,7 +3118,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.68600000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3132,7 +3132,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.68200000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3146,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.68</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3160,7 +3160,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.69899999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3174,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.68799999999999994</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3188,7 +3188,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.68300000000000005</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3202,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.69799999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.69299999999999995</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3230,7 +3230,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.69699999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3244,7 +3244,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.69499999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3258,7 +3258,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.68200000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3272,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.68700000000000006</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3286,7 +3286,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.69399999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3300,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.69399999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3314,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.67900000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3328,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.70199999999999996</v>
+        <v>0.629</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.73299999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3356,7 +3356,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.753</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3370,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.76800000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3384,7 +3384,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.72399999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3398,7 +3398,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.73799999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3412,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.75600000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3426,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.72</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3440,7 +3440,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.72599999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3454,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.76300000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.71099999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3482,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.745</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3496,7 +3496,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.76</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3510,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.73599999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3524,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.73599999999999999</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3538,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.76900000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3552,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.72499999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3566,7 +3566,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.73699999999999999</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3580,7 +3580,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.76300000000000001</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3594,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.73299999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3608,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.75</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3622,7 +3622,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.747</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3636,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.72</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3650,7 +3650,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.73799999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3664,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.74099999999999999</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3678,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.72799999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3692,7 +3692,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.746</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3706,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.754</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3720,7 +3720,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.73099999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3734,7 +3734,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.74099999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3748,7 +3748,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.746</v>
+        <v>0.628</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3762,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.73899999999999999</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3776,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.748</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3790,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.76600000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3804,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.748</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3818,7 +3818,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.75800000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3832,7 +3832,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.77100000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3846,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.749</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3860,7 +3860,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.747</v>
+        <v>0.62</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.76200000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3888,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.73699999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3902,7 +3902,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.749</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3916,7 +3916,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.76100000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3930,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.73099999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3944,7 +3944,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.754</v>
+        <v>0.624</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3958,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.77700000000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3972,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.70799999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3986,7 +3986,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.72799999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -4000,7 +4000,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.73299999999999998</v>
+        <v>0.628</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4014,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.71199999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4028,7 +4028,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.71199999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4042,7 +4042,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.73</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4056,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.70099999999999996</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4070,7 +4070,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.70599999999999996</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4084,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.73299999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4098,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.70699999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4112,7 +4112,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.71</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4126,7 +4126,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.73</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4140,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.69799999999999995</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4154,7 +4154,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.72</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4168,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.73899999999999999</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4182,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.70599999999999996</v>
+        <v>0.623</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4196,7 +4196,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.69499999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4210,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.72899999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4224,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.71599999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4238,7 +4238,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.71599999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.73199999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4266,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.69699999999999995</v>
+        <v>0.621</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4280,7 +4280,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.71199999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4294,7 +4294,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.73299999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4308,7 +4308,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.70099999999999996</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4322,7 +4322,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.71199999999999997</v>
+        <v>0.629</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4336,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.74199999999999999</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4350,7 +4350,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.72699999999999998</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4364,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.73199999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4378,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.73199999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4392,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.68300000000000005</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4406,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.70599999999999996</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4420,7 +4420,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.71799999999999997</v>
+        <v>0.621</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4434,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.70299999999999996</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4448,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.68</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4462,7 +4462,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.69799999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4476,7 +4476,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.69199999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4490,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.69099999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4504,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.70599999999999996</v>
+        <v>0.629</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4518,7 +4518,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.70099999999999996</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4532,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.67900000000000005</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4546,7 +4546,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.72599999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4560,7 +4560,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>0.69699999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
@@ -4574,7 +4574,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.68</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4588,7 +4588,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.7</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4602,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.68799999999999994</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4616,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.66800000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4630,7 +4630,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.67300000000000004</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4644,7 +4644,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.69699999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4658,7 +4658,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.67100000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4672,7 +4672,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.68400000000000005</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4686,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.65900000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4700,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.68500000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4714,7 +4714,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.68400000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4728,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4742,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.67400000000000004</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4756,7 +4756,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.69499999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4770,7 +4770,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.69499999999999995</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4784,7 +4784,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.68300000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4798,7 +4798,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.66200000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4812,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.71</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4826,7 +4826,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.68300000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4840,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.69299999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4854,7 +4854,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.70099999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4868,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.69799999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4882,7 +4882,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.70699999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4896,7 +4896,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.68500000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4910,7 +4910,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.70199999999999996</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4924,7 +4924,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.68200000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4938,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.69899999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4952,7 +4952,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.68500000000000005</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4966,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.70299999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4980,7 +4980,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.71099999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4994,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.68700000000000006</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -5008,7 +5008,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.7</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5022,7 +5022,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.68400000000000005</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5036,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.71099999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5050,7 +5050,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.74</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5064,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.68899999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5078,7 +5078,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.7</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5092,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.72199999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5106,7 +5106,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.69299999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5120,7 +5120,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.71699999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5134,7 +5134,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.70099999999999996</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5148,7 +5148,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.69699999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5162,7 +5162,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5176,7 +5176,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.71499999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5190,7 +5190,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.69799999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5204,7 +5204,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.70399999999999996</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5218,7 +5218,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.73199999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5232,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.63800000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5246,7 +5246,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.63500000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5260,7 +5260,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.59399999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5274,7 +5274,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.63600000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5288,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.61799999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5302,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.57499999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5316,7 +5316,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.63100000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5330,7 +5330,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.622</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5344,7 +5344,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.60299999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5358,7 +5358,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.63800000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5372,7 +5372,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.623</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5386,7 +5386,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.58599999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5400,7 +5400,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.64100000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5414,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.64200000000000002</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5428,7 +5428,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.58699999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5442,7 +5442,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.64200000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5456,7 +5456,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.67</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5470,7 +5470,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.64200000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5484,7 +5484,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.61</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5498,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5512,7 +5512,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.67400000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5526,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.61299999999999999</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5540,7 +5540,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.65300000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5554,7 +5554,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.65900000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5568,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.627</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5582,7 +5582,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.66300000000000003</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5596,7 +5596,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.65200000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5610,7 +5610,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.63200000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5624,7 +5624,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.67500000000000004</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5638,7 +5638,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.63100000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5652,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.50800000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5666,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.50800000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5680,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.52900000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5694,7 +5694,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.51400000000000001</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5708,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.51300000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5722,7 +5722,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.55500000000000005</v>
+        <v>0.503</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5736,7 +5736,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.47499999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5750,7 +5750,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.50700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5764,7 +5764,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.53400000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5778,7 +5778,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.50800000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5792,7 +5792,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.47799999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5806,7 +5806,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.53700000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5820,7 +5820,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.52700000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5834,7 +5834,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.51700000000000002</v>
+        <v>0.503</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5848,7 +5848,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.55300000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D226" t="s">
         <v>80</v>
@@ -5862,7 +5862,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.61499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5876,7 +5876,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.63500000000000001</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5890,7 +5890,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.61899999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5904,7 +5904,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.625</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5918,7 +5918,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.65600000000000003</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5932,7 +5932,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.61899999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5946,7 +5946,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.61599999999999999</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5960,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.63</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5974,7 +5974,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.61299999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5988,7 +5988,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.60299999999999998</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -6002,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.64100000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6016,7 +6016,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.61499999999999999</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6030,7 +6030,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.64</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6044,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.64</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6058,7 +6058,7 @@
         <v>50</v>
       </c>
       <c r="C241">
-        <v>0.61399999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D241" t="s">
         <v>80</v>
@@ -6086,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.52100000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6100,7 +6100,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.59099999999999997</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6114,7 +6114,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.52</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6128,7 +6128,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.54500000000000004</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6142,7 +6142,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.58099999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6156,7 +6156,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.52600000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6170,7 +6170,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.53700000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6184,7 +6184,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.59699999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6198,7 +6198,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.51500000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6212,7 +6212,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.53800000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6226,7 +6226,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.59</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6240,7 +6240,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.56200000000000006</v>
+        <v>0.48</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6254,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.499</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6268,7 +6268,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.56200000000000006</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6282,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.55400000000000005</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6296,7 +6296,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.59599999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6310,7 +6310,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.624</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6324,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.57199999999999995</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6338,7 +6338,7 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>0.58499999999999996</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D261" t="s">
         <v>80</v>
@@ -6352,7 +6352,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.64</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6366,7 +6366,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.58899999999999997</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6380,7 +6380,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.58799999999999997</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6394,7 +6394,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.58399999999999996</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6408,7 +6408,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.56499999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6422,7 +6422,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.60599999999999998</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6436,7 +6436,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.628</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6450,7 +6450,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.56899999999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6464,7 +6464,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.56999999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6478,7 +6478,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.61399999999999999</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6492,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.65700000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6506,7 +6506,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.64800000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6520,7 +6520,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.64300000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6534,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.66100000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6548,7 +6548,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.63200000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6562,7 +6562,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.63800000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6576,7 +6576,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.63400000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6590,7 +6590,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.64600000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6604,7 +6604,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.628</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6618,7 +6618,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.64500000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6632,7 +6632,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.64100000000000001</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6646,7 +6646,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.623</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6660,7 +6660,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.63700000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6674,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.64900000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6688,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.621</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6702,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.70299999999999996</v>
+        <v>0.627</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6716,7 +6716,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.70699999999999996</v>
+        <v>0.624</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6730,7 +6730,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.72099999999999997</v>
+        <v>0.65</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6744,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6758,7 +6758,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.71899999999999997</v>
+        <v>0.63</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6772,7 +6772,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.72899999999999998</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6786,7 +6786,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.7</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6800,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.71599999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6814,7 +6814,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.71799999999999997</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6828,7 +6828,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6842,7 +6842,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.71499999999999997</v>
+        <v>0.627</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6856,7 +6856,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.72299999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6870,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.69899999999999995</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6884,7 +6884,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.71899999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6898,7 +6898,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.72199999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6912,7 +6912,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.71599999999999997</v>
+        <v>0.622</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6926,7 +6926,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.71899999999999997</v>
+        <v>0.66</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6940,7 +6940,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.73299999999999998</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6954,7 +6954,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.70899999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6968,7 +6968,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.71599999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6982,7 +6982,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.753</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6996,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.71099999999999997</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7010,7 +7010,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.72899999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7024,7 +7024,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.747</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7038,7 +7038,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.70699999999999996</v>
+        <v>0.629</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7052,7 +7052,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.72099999999999997</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7066,7 +7066,7 @@
         <v>50</v>
       </c>
       <c r="C313">
-        <v>0.73899999999999999</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D313" t="s">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.72299999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7094,7 +7094,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.72599999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7108,7 +7108,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.73299999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7122,7 +7122,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.68600000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7136,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.70099999999999996</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7150,7 +7150,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.72099999999999997</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7164,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.70199999999999996</v>
+        <v>0.622</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7178,7 +7178,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.71799999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7192,7 +7192,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.69899999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7206,7 +7206,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.68300000000000005</v>
+        <v>0.627</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7220,7 +7220,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.72299999999999998</v>
+        <v>0.624</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7234,7 +7234,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.72299999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7248,7 +7248,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.69399999999999995</v>
+        <v>0.629</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7262,7 +7262,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.69599999999999995</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7276,7 +7276,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.71599999999999997</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7290,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.69799999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7304,7 +7304,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.71799999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7318,7 +7318,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.71799999999999997</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
